--- a/Testbook_Maven/profile_update.xlsx
+++ b/Testbook_Maven/profile_update.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\Eclipse_Workspace\Testbook_Maven\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785858E8-3264-410B-939C-33D833B59AA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E947FD0E-4361-4DC2-AE93-E6D81F8F5F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-110" windowWidth="18470" windowHeight="11020" activeTab="1" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
+    <workbookView xWindow="1330" yWindow="380" windowWidth="18510" windowHeight="11060" activeTab="1" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,7 +437,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
